--- a/report/Report-Pilot & Ship Availability.xlsx
+++ b/report/Report-Pilot & Ship Availability.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kesiapan Armada" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>NO</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>${table:pandu.day}</t>
+  </si>
+  <si>
+    <t>${table:pandu.keterangan}</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-13809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-13809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -180,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -198,46 +204,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -249,19 +216,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -353,62 +307,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -642,62 +623,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -714,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -726,58 +707,73 @@
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="22" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/Report-Pilot & Ship Availability.xlsx
+++ b/report/Report-Pilot & Ship Availability.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Kesiapan Armada" sheetId="4" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>${table:global.keterangan}</t>
   </si>
   <si>
-    <t>${table:global.available}</t>
-  </si>
-  <si>
     <t>${table:global.jam_operasi}</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>${table:global.availability}</t>
   </si>
 </sst>
 </file>
@@ -347,6 +347,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -367,6 +370,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -376,20 +388,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -628,21 +628,21 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -670,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -711,58 +711,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="26"/>
+      <c r="E2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="26"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/report/Report-Pilot & Ship Availability.xlsx
+++ b/report/Report-Pilot & Ship Availability.xlsx
@@ -54,9 +54,6 @@
     <t>AVAILABILITY</t>
   </si>
   <si>
-    <t>Tipe</t>
-  </si>
-  <si>
     <t>${table:global.armada}</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>${table:global.availability}</t>
+  </si>
+  <si>
+    <t>JENIS KAPAL</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-13809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -147,12 +147,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
@@ -340,9 +334,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -387,9 +378,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +602,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -628,22 +622,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -652,34 +646,34 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
+      <c r="G3" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -711,58 +705,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="10"/>
+      <c r="E2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/report/Report-Pilot & Ship Availability.xlsx
+++ b/report/Report-Pilot & Ship Availability.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\ilcs\simpanda\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\simpanda_oracle\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kesiapan Armada" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>NO</t>
   </si>
@@ -69,9 +69,6 @@
     <t>PANDU</t>
   </si>
   <si>
-    <t>Jenis Pandu</t>
-  </si>
-  <si>
     <t>${table:pandu.date}</t>
   </si>
   <si>
@@ -90,13 +87,13 @@
     <t>${table:pandu.keterangan}</t>
   </si>
   <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
     <t>${table:global.availability}</t>
   </si>
   <si>
     <t>JENIS KAPAL</t>
+  </si>
+  <si>
+    <t>JENIS PANDU</t>
   </si>
 </sst>
 </file>
@@ -106,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-13809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -153,6 +150,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -180,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -321,13 +325,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -341,6 +366,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -362,27 +390,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,88 +642,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -689,83 +749,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/report/Report-Pilot & Ship Availability.xlsx
+++ b/report/Report-Pilot & Ship Availability.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\simpanda_oracle\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\ilcs\simpanda\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kesiapan Armada" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>NO</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>JENIS PANDU</t>
+  </si>
+  <si>
+    <t>LAPORAN KESIAPAN PANDU DAN SARANA PRASARANA ${cabang}</t>
   </si>
 </sst>
 </file>
@@ -369,6 +372,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,32 +397,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,53 +651,53 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
@@ -752,66 +755,66 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="1" spans="1:7" ht="58.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="26"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
